--- a/Шаблоны/Scenar6.xlsx
+++ b/Шаблоны/Scenar6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gerasimovskaya_1264\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -643,9 +643,6 @@
     <t>ОРУ35_35кВ_2секция</t>
   </si>
   <si>
-    <t>ОРУ_35_ЗОНТ2_2секция</t>
-  </si>
-  <si>
     <t>ОПУ_2У_Плакат_В6Т1</t>
   </si>
   <si>
@@ -707,6 +704,9 @@
   </si>
   <si>
     <t>РУ6_яч9_Плакат_В6Т1_Заземлено</t>
+  </si>
+  <si>
+    <t>ОРУ_110_ЗОНТ2_2секция</t>
   </si>
 </sst>
 </file>
@@ -716,12 +716,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ h:mm;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -918,19 +926,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -941,11 +946,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -955,53 +960,59 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1307,39 +1318,39 @@
       <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
@@ -1413,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,8 +1956,8 @@
         <v>21</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="14" t="s">
-        <v>203</v>
+      <c r="C22" s="34" t="s">
+        <v>224</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>132</v>
@@ -2338,7 +2349,7 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>150</v>
@@ -2436,7 +2447,7 @@
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>129</v>
@@ -2536,7 +2547,7 @@
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>150</v>
@@ -2605,7 +2616,7 @@
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>155</v>
@@ -2628,7 +2639,7 @@
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>150</v>
@@ -2943,7 +2954,7 @@
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>129</v>
@@ -3335,7 +3346,7 @@
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>130</v>
@@ -3431,7 +3442,7 @@
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>130</v>
@@ -3575,7 +3586,7 @@
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>130</v>
@@ -3740,7 +3751,7 @@
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D96" t="s">
         <v>131</v>
@@ -3763,7 +3774,7 @@
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>130</v>
@@ -3813,7 +3824,7 @@
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>150</v>
@@ -3882,7 +3893,7 @@
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>132</v>
@@ -3905,7 +3916,7 @@
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>132</v>
@@ -3953,7 +3964,7 @@
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D105" t="s">
         <v>131</v>
@@ -3976,7 +3987,7 @@
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>130</v>
@@ -4026,7 +4037,7 @@
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>150</v>
@@ -4095,7 +4106,7 @@
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>132</v>
@@ -4118,7 +4129,7 @@
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>132</v>
@@ -4209,8 +4220,8 @@
         <v>115</v>
       </c>
       <c r="B116" s="8"/>
-      <c r="C116" s="33" t="s">
-        <v>222</v>
+      <c r="C116" s="30" t="s">
+        <v>221</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>130</v>
@@ -4234,8 +4245,8 @@
         <v>116</v>
       </c>
       <c r="B117" s="8"/>
-      <c r="C117" s="33" t="s">
-        <v>223</v>
+      <c r="C117" s="30" t="s">
+        <v>222</v>
       </c>
       <c r="D117" s="15" t="s">
         <v>126</v>
@@ -4257,8 +4268,8 @@
         <v>117</v>
       </c>
       <c r="B118" s="8"/>
-      <c r="C118" s="33" t="s">
-        <v>224</v>
+      <c r="C118" s="30" t="s">
+        <v>223</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>150</v>
@@ -5141,7 +5152,7 @@
       <c r="F371" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Шаблоны/Scenar6.xlsx
+++ b/Шаблоны/Scenar6.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -553,9 +553,6 @@
     <t>ОПУ_ ШРОТ_Автомат_В110</t>
   </si>
   <si>
-    <t>ОПУ_ ШРОТ_Плакат_В110</t>
-  </si>
-  <si>
     <t>ОРУ110_Указатель_СВ110</t>
   </si>
   <si>
@@ -610,9 +607,6 @@
     <t>ОРУ110_РП-2_110</t>
   </si>
   <si>
-    <t>ОРУ110_РП-2_110_БлокировочныйКлюч</t>
-  </si>
-  <si>
     <t>ОРУ110_РП-2_110_Включить</t>
   </si>
   <si>
@@ -707,14 +701,21 @@
   </si>
   <si>
     <t>ОРУ_110_ЗОНТ2_2секция</t>
+  </si>
+  <si>
+    <t>ОРУ110_РП-2_110_ДеблокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>ОПУ_ ШРОТ_Автомат_В110_Заря</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -722,6 +723,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -862,14 +871,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -926,19 +927,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -949,11 +947,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -963,41 +961,44 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1006,18 +1007,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1318,43 +1320,43 @@
       <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>121</v>
@@ -1371,7 +1373,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -1380,7 +1382,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -1389,7 +1391,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -1410,12 +1412,1113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B364"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B364"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="35"/>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="35"/>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="35"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="35"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="35"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="35"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="35"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="35"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="35"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="35"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="35"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="35"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="35"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="35"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="35"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="35"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="35"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="35"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="35"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="35"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="35"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="35"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="35"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="35"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="35"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="35"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="35"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="35"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="35"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="35"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="35"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="35"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="35"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="35"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="35"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="35"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="35"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="35"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="35"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="35"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="35"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="35"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="35"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="35"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="35"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="35"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="35"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="35"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="35"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="35"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="35"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="35"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="35"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="35"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="35"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="35"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="35"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="35"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="35"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="35"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="35"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="35"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="35"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="35"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="35"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="35"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="35"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="35"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="35"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="35"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="35"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="35"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="35"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="35"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="35"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="35"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="35"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="35"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="35"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="35"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="35"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="35"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="35"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="35"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="35"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="35"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="35"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="35"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="35"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="35"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="35"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="35"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="35"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="35"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="35"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="35"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="35"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="35"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="35"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="35"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="35"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="35"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="35"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="35"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="35"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="35"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="35"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="35"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="35"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="35"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="35"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="35"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="35"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="35"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="35"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="35"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="35"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="35"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="35"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="35"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="35"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="35"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="35"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="35"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="35"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="35"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="35"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="35"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="35"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="35"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="35"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="35"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="35"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="35"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="35"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="35"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="35"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="35"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="35"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="35"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="35"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="35"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="35"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="35"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="35"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="35"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="35"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="35"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="35"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="35"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="35"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="35"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="35"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="35"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="35"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="35"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="35"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="35"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="35"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="35"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="35"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="35"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="35"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="35"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="35"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="35"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="35"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="35"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="35"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="35"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="35"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" s="35"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="35"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="35"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="35"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="35"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="35"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="35"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="35"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="35"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="35"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="35"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="35"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="35"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="35"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="35"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="35"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="35"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" s="35"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="35"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="35"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="35"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="35"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="35"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="35"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="35"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="35"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="35"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="35"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="35"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="35"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="35"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="35"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="35"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="35"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="35"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="35"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="35"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="35"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="35"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="35"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="35"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="35"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="35"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="35"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="35"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="35"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="35"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="35"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="35"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="35"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="35"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="35"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="35"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="35"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="35"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="35"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="35"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="35"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="35"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="35"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="35"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="35"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="35"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="35"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="35"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="35"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="35"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="35"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="35"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="35"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="35"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="35"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="35"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="35"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="35"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="35"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="35"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="35"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="35"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="35"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="35"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="35"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="35"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="35"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="35"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="35"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="35"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="35"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="35"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="35"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="35"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="35"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="35"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="35"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="35"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="35"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="35"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="35"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="35"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="35"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="35"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="35"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="35"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="35"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="35"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="35"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" s="35"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" s="35"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="35"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" s="35"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" s="35"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" s="35"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" s="35"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" s="35"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" s="35"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" s="35"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" s="35"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" s="35"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" s="35"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" s="35"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" s="35"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" s="35"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" s="35"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" s="35"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" s="35"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" s="35"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" s="35"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" s="35"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" s="35"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" s="35"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" s="35"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" s="35"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" s="35"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" s="35"/>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" s="35"/>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" s="35"/>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" s="35"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" s="35"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" s="35"/>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" s="35"/>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" s="35"/>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" s="35"/>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" s="35"/>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" s="35"/>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" s="35"/>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" s="35"/>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B321" s="35"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322" s="35"/>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323" s="35"/>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" s="35"/>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" s="35"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B326" s="35"/>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327" s="35"/>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328" s="35"/>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" s="35"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" s="35"/>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331" s="35"/>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332" s="35"/>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333" s="35"/>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334" s="35"/>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B335" s="35"/>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336" s="35"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" s="35"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" s="35"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339" s="35"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340" s="35"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341" s="35"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" s="35"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" s="35"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" s="35"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" s="35"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" s="35"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="35"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" s="35"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="35"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="35"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="35"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="35"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="35"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="35"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" s="35"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" s="35"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="35"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="35"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="35"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="35"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="35"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="35"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="35"/>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" s="35"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1424,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,7 +2607,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>129</v>
@@ -1528,8 +2631,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="25" t="s">
-        <v>192</v>
+      <c r="C4" s="31" t="s">
+        <v>223</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -1552,12 +2655,14 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1575,7 +2680,7 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>129</v>
@@ -1701,7 +2806,7 @@
       <c r="D11" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1721,7 +2826,7 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>127</v>
@@ -1744,7 +2849,7 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>128</v>
@@ -1767,7 +2872,7 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>132</v>
@@ -1790,7 +2895,7 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>132</v>
@@ -1813,7 +2918,7 @@
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>129</v>
@@ -1838,7 +2943,7 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>130</v>
@@ -1863,7 +2968,7 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>129</v>
@@ -1888,7 +2993,7 @@
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>127</v>
@@ -1911,7 +3016,7 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>128</v>
@@ -1934,7 +3039,7 @@
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>126</v>
@@ -1956,8 +3061,8 @@
         <v>21</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="34" t="s">
-        <v>224</v>
+      <c r="C22" s="30" t="s">
+        <v>222</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>132</v>
@@ -1980,7 +3085,7 @@
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>129</v>
@@ -2005,7 +3110,7 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>130</v>
@@ -2030,7 +3135,7 @@
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>129</v>
@@ -2060,7 +3165,7 @@
       <c r="D26" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="25">
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -2085,7 +3190,7 @@
       <c r="D27" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="25">
         <v>2</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -2133,7 +3238,7 @@
       <c r="D29" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="25">
         <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -2158,7 +3263,7 @@
       <c r="D30" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="25">
         <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -2206,7 +3311,7 @@
       <c r="D32" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="25">
         <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -2231,7 +3336,7 @@
       <c r="D33" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="25">
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -2256,7 +3361,7 @@
       <c r="D34" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="25">
         <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -2275,13 +3380,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="27" t="s">
         <v>148</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="25">
         <v>1</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -2329,7 +3434,7 @@
       <c r="D37" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="25">
         <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -2349,7 +3454,7 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>150</v>
@@ -2377,7 +3482,7 @@
       <c r="D39" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="25">
         <v>3</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -2402,7 +3507,7 @@
       <c r="D40" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="25">
         <v>1</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -2427,7 +3532,7 @@
       <c r="D41" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="25">
         <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -2446,13 +3551,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="27" t="s">
-        <v>204</v>
+      <c r="C42" s="26" t="s">
+        <v>202</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="25">
         <v>1</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -2477,7 +3582,7 @@
       <c r="D43" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="25">
         <v>2</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -2502,7 +3607,7 @@
       <c r="D44" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="25">
         <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -2527,7 +3632,7 @@
       <c r="D45" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="25">
         <v>1</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -2546,8 +3651,8 @@
         <v>45</v>
       </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="27" t="s">
-        <v>206</v>
+      <c r="C46" s="26" t="s">
+        <v>204</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>150</v>
@@ -2570,7 +3675,7 @@
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>127</v>
@@ -2593,7 +3698,7 @@
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>128</v>
@@ -2616,7 +3721,7 @@
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>155</v>
@@ -2638,8 +3743,8 @@
         <v>49</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="27" t="s">
-        <v>205</v>
+      <c r="C50" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>150</v>
@@ -2765,7 +3870,7 @@
       <c r="D55" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E55" s="25">
         <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -2807,13 +3912,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="8"/>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="27" t="s">
         <v>159</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="25">
         <v>1</v>
       </c>
       <c r="F57" s="3" t="s">
@@ -2934,7 +4039,7 @@
       <c r="D62" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="26">
+      <c r="E62" s="25">
         <v>3</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -2953,13 +4058,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="8"/>
-      <c r="C63" s="27" t="s">
-        <v>204</v>
+      <c r="C63" s="26" t="s">
+        <v>202</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E63" s="26">
+      <c r="E63" s="25">
         <v>2</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -2984,7 +4089,7 @@
       <c r="D64" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E64" s="26">
+      <c r="E64" s="25">
         <v>4</v>
       </c>
       <c r="F64" s="3" t="s">
@@ -3009,7 +4114,7 @@
       <c r="D65" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="26">
+      <c r="E65" s="25">
         <v>1</v>
       </c>
       <c r="F65" s="3" t="s">
@@ -3057,7 +4162,7 @@
       <c r="D67" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E67" s="26">
+      <c r="E67" s="25">
         <v>1</v>
       </c>
       <c r="F67" s="3" t="s">
@@ -3082,7 +4187,7 @@
       <c r="D68" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E68" s="26">
+      <c r="E68" s="25">
         <v>1</v>
       </c>
       <c r="F68" s="3" t="s">
@@ -3107,7 +4212,7 @@
       <c r="D69" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E69" s="26">
+      <c r="E69" s="25">
         <v>1</v>
       </c>
       <c r="F69" s="3" t="s">
@@ -3132,7 +4237,7 @@
       <c r="D70" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E70" s="26">
+      <c r="E70" s="25">
         <v>1</v>
       </c>
       <c r="F70" s="3" t="s">
@@ -3203,7 +4308,7 @@
       <c r="D73" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E73" s="26">
+      <c r="E73" s="25">
         <v>1</v>
       </c>
       <c r="F73" s="3" t="s">
@@ -3223,7 +4328,7 @@
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="14" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>150</v>
@@ -3246,7 +4351,7 @@
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>129</v>
@@ -3271,7 +4376,7 @@
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>129</v>
@@ -3296,12 +4401,12 @@
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E77" s="26">
+      <c r="E77" s="25">
         <v>1</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -3321,12 +4426,12 @@
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E78" s="26">
+      <c r="E78" s="25">
         <v>1</v>
       </c>
       <c r="F78" s="3" t="s">
@@ -3345,13 +4450,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="8"/>
-      <c r="C79" s="29" t="s">
-        <v>208</v>
+      <c r="C79" s="28" t="s">
+        <v>206</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E79" s="26">
+      <c r="E79" s="25">
         <v>1</v>
       </c>
       <c r="F79" s="3" t="s">
@@ -3371,7 +4476,7 @@
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>126</v>
@@ -3394,7 +4499,7 @@
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>150</v>
@@ -3417,12 +4522,12 @@
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E82" s="26">
+      <c r="E82" s="25">
         <v>2</v>
       </c>
       <c r="F82" s="3" t="s">
@@ -3442,12 +4547,12 @@
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E83" s="26">
+      <c r="E83" s="25">
         <v>1</v>
       </c>
       <c r="F83" s="3" t="s">
@@ -3467,7 +4572,7 @@
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>150</v>
@@ -3490,7 +4595,7 @@
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>130</v>
@@ -3515,7 +4620,7 @@
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>126</v>
@@ -3538,7 +4643,7 @@
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>150</v>
@@ -3561,7 +4666,7 @@
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>129</v>
@@ -3586,7 +4691,7 @@
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>130</v>
@@ -3611,7 +4716,7 @@
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>150</v>
@@ -3634,7 +4739,7 @@
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>127</v>
@@ -3657,7 +4762,7 @@
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>128</v>
@@ -3680,7 +4785,7 @@
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>132</v>
@@ -3703,7 +4808,7 @@
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>132</v>
@@ -3726,7 +4831,7 @@
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>129</v>
@@ -3750,8 +4855,8 @@
         <v>95</v>
       </c>
       <c r="B96" s="8"/>
-      <c r="C96" s="29" t="s">
-        <v>214</v>
+      <c r="C96" s="28" t="s">
+        <v>212</v>
       </c>
       <c r="D96" t="s">
         <v>131</v>
@@ -3773,8 +4878,8 @@
         <v>96</v>
       </c>
       <c r="B97" s="8"/>
-      <c r="C97" s="28" t="s">
-        <v>211</v>
+      <c r="C97" s="27" t="s">
+        <v>209</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>130</v>
@@ -3799,7 +4904,7 @@
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>129</v>
@@ -3823,8 +4928,8 @@
         <v>98</v>
       </c>
       <c r="B99" s="8"/>
-      <c r="C99" s="29" t="s">
-        <v>218</v>
+      <c r="C99" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>150</v>
@@ -3847,7 +4952,7 @@
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>127</v>
@@ -3870,7 +4975,7 @@
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>128</v>
@@ -3893,7 +4998,7 @@
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>132</v>
@@ -3916,7 +5021,7 @@
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>132</v>
@@ -3939,7 +5044,7 @@
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D104" s="15" t="s">
         <v>129</v>
@@ -3964,7 +5069,7 @@
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D105" t="s">
         <v>131</v>
@@ -3986,8 +5091,8 @@
         <v>105</v>
       </c>
       <c r="B106" s="8"/>
-      <c r="C106" s="28" t="s">
-        <v>216</v>
+      <c r="C106" s="27" t="s">
+        <v>214</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>130</v>
@@ -4012,7 +5117,7 @@
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D107" s="15" t="s">
         <v>129</v>
@@ -4036,8 +5141,8 @@
         <v>107</v>
       </c>
       <c r="B108" s="8"/>
-      <c r="C108" s="29" t="s">
-        <v>217</v>
+      <c r="C108" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>150</v>
@@ -4060,7 +5165,7 @@
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>127</v>
@@ -4083,7 +5188,7 @@
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>128</v>
@@ -4105,8 +5210,8 @@
         <v>110</v>
       </c>
       <c r="B111" s="8"/>
-      <c r="C111" s="28" t="s">
-        <v>219</v>
+      <c r="C111" s="27" t="s">
+        <v>217</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>132</v>
@@ -4129,7 +5234,7 @@
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>132</v>
@@ -4152,7 +5257,7 @@
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>127</v>
@@ -4175,7 +5280,7 @@
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>128</v>
@@ -4198,7 +5303,7 @@
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D115" t="s">
         <v>131</v>
@@ -4220,8 +5325,8 @@
         <v>115</v>
       </c>
       <c r="B116" s="8"/>
-      <c r="C116" s="30" t="s">
-        <v>221</v>
+      <c r="C116" s="29" t="s">
+        <v>219</v>
       </c>
       <c r="D116" s="15" t="s">
         <v>130</v>
@@ -4245,8 +5350,8 @@
         <v>116</v>
       </c>
       <c r="B117" s="8"/>
-      <c r="C117" s="30" t="s">
-        <v>222</v>
+      <c r="C117" s="29" t="s">
+        <v>220</v>
       </c>
       <c r="D117" s="15" t="s">
         <v>126</v>
@@ -4268,8 +5373,8 @@
         <v>117</v>
       </c>
       <c r="B118" s="8"/>
-      <c r="C118" s="30" t="s">
-        <v>223</v>
+      <c r="C118" s="29" t="s">
+        <v>221</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>150</v>
@@ -4292,7 +5397,7 @@
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D119" s="15" t="s">
         <v>129</v>
@@ -4317,7 +5422,7 @@
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>127</v>
@@ -4340,7 +5445,7 @@
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>128</v>
@@ -4388,7 +5493,7 @@
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>129</v>
@@ -5152,7 +6257,7 @@
       <c r="F371" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
